--- a/Visualization/PowerBI/Data/Managers.xlsx
+++ b/Visualization/PowerBI/Data/Managers.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seder\Documents\GitHub\Data-Analysis\Visualization\PowerBI\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6209818-DD61-4FCE-90A6-6EE04A8C1281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>EmpID</t>
   </si>
@@ -47,122 +28,119 @@
     <t>UserPhoneNumber</t>
   </si>
   <si>
-    <t>Eugene Nichols</t>
-  </si>
-  <si>
-    <t>Nancy Shaw</t>
-  </si>
-  <si>
-    <t>Kathy Curtis</t>
-  </si>
-  <si>
-    <t>Gregory Reyes</t>
-  </si>
-  <si>
-    <t>Breanna Walton</t>
-  </si>
-  <si>
-    <t>Greg Rush</t>
-  </si>
-  <si>
-    <t>Cody Hopkins</t>
-  </si>
-  <si>
-    <t>Nicole Butler</t>
-  </si>
-  <si>
-    <t>Susan Mitchell</t>
-  </si>
-  <si>
-    <t>Shelley Schmidt</t>
-  </si>
-  <si>
-    <t>Mr. Victor Chang</t>
-  </si>
-  <si>
-    <t>Brandon Copeland</t>
-  </si>
-  <si>
-    <t>angelaharris@example.org</t>
-  </si>
-  <si>
-    <t>owest@example.org</t>
-  </si>
-  <si>
-    <t>kennethburns@example.com</t>
-  </si>
-  <si>
-    <t>aaroncalhoun@example.com</t>
-  </si>
-  <si>
-    <t>keith89@example.net</t>
-  </si>
-  <si>
-    <t>richardsonmichael@example.net</t>
-  </si>
-  <si>
-    <t>ukaufman@example.net</t>
-  </si>
-  <si>
-    <t>william00@example.org</t>
-  </si>
-  <si>
-    <t>lawrencesteven@example.com</t>
-  </si>
-  <si>
-    <t>zadkins@example.net</t>
-  </si>
-  <si>
-    <t>jessicaklein@example.com</t>
-  </si>
-  <si>
-    <t>bowenlinda@example.com</t>
-  </si>
-  <si>
-    <t>317.858.5601x6365</t>
-  </si>
-  <si>
-    <t>+1-368-670-9667x27870</t>
-  </si>
-  <si>
-    <t>598-371-5745x64482</t>
-  </si>
-  <si>
-    <t>271.801.0323x5144</t>
-  </si>
-  <si>
-    <t>6976834347</t>
-  </si>
-  <si>
-    <t>845.751.7158x8484</t>
-  </si>
-  <si>
-    <t>583-648-2661x466</t>
-  </si>
-  <si>
-    <t>(229)619-8998x5292</t>
-  </si>
-  <si>
-    <t>(600)546-3787</t>
-  </si>
-  <si>
-    <t>(472)213-6471x582</t>
-  </si>
-  <si>
-    <t>001-812-346-3557x38968</t>
-  </si>
-  <si>
-    <t>(797)458-8774x760</t>
-  </si>
-  <si>
-    <t>Column1</t>
+    <t>Richard Hill</t>
+  </si>
+  <si>
+    <t>Brittany Wyatt</t>
+  </si>
+  <si>
+    <t>Nancy Best</t>
+  </si>
+  <si>
+    <t>Paul Brown</t>
+  </si>
+  <si>
+    <t>Courtney Huang</t>
+  </si>
+  <si>
+    <t>Kim Middleton</t>
+  </si>
+  <si>
+    <t>Megan Douglas</t>
+  </si>
+  <si>
+    <t>Ruth Wyatt</t>
+  </si>
+  <si>
+    <t>Douglas Hart</t>
+  </si>
+  <si>
+    <t>Alyssa Haley</t>
+  </si>
+  <si>
+    <t>Kathy Flores</t>
+  </si>
+  <si>
+    <t>Jason Jones</t>
+  </si>
+  <si>
+    <t>ppatton@example.org</t>
+  </si>
+  <si>
+    <t>robert82@example.org</t>
+  </si>
+  <si>
+    <t>davidroth@example.net</t>
+  </si>
+  <si>
+    <t>joshua94@example.org</t>
+  </si>
+  <si>
+    <t>morgan27@example.net</t>
+  </si>
+  <si>
+    <t>lewiskelly@example.com</t>
+  </si>
+  <si>
+    <t>sarahpreston@example.com</t>
+  </si>
+  <si>
+    <t>evanjackson@example.com</t>
+  </si>
+  <si>
+    <t>samuelgolden@example.com</t>
+  </si>
+  <si>
+    <t>heatherrobinson@example.org</t>
+  </si>
+  <si>
+    <t>jessicanguyen@example.org</t>
+  </si>
+  <si>
+    <t>alexander21@example.net</t>
+  </si>
+  <si>
+    <t>394.967.5779</t>
+  </si>
+  <si>
+    <t>+1-501-547-1212x3281</t>
+  </si>
+  <si>
+    <t>(680)497-1866x0271</t>
+  </si>
+  <si>
+    <t>001-331-464-7790</t>
+  </si>
+  <si>
+    <t>914-904-9057</t>
+  </si>
+  <si>
+    <t>368-738-9149</t>
+  </si>
+  <si>
+    <t>(644)739-2005x79079</t>
+  </si>
+  <si>
+    <t>001-984-894-4852</t>
+  </si>
+  <si>
+    <t>001-705-277-2243x8418</t>
+  </si>
+  <si>
+    <t>875.568.1966</t>
+  </si>
+  <si>
+    <t>(502)313-3447</t>
+  </si>
+  <si>
+    <t>778.593.2461x0217</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,102 +201,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{139B05F7-F0D6-4B48-BFE7-C3AEC7EA7E47}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E13" xr:uid="{139B05F7-F0D6-4B48-BFE7-C3AEC7EA7E47}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{990A803A-F995-461F-B268-341C67BD7274}" name="Column1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{4573E219-1239-46F1-8EE7-ADD769B4B35F}" name="EmpID"/>
-    <tableColumn id="3" xr3:uid="{65F4ED5E-0012-48DA-BA0E-4E07AEB80822}" name="DisplayName"/>
-    <tableColumn id="4" xr3:uid="{5AE33926-3362-4F30-B700-B0F0A944B96A}" name="UserPrincipalName"/>
-    <tableColumn id="5" xr3:uid="{61BA2BB3-E9F0-4233-B4B0-E78E9C69C277}" name="UserPhoneNumber"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -356,7 +247,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -390,7 +281,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -425,10 +315,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -601,24 +490,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="5" width="20.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,12 +511,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3140</v>
+        <v>2311</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -649,12 +528,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8079</v>
+        <v>9941</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -666,12 +545,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1410</v>
+        <v>2476</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -683,12 +562,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1248</v>
+        <v>2306</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -700,12 +579,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9528</v>
+        <v>3471</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -717,12 +596,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7788</v>
+        <v>8397</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -734,12 +613,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4904</v>
+        <v>2945</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -751,12 +630,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7338</v>
+        <v>7872</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -768,12 +647,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5114</v>
+        <v>9735</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -785,12 +664,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1302</v>
+        <v>5212</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -802,12 +681,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1354</v>
+        <v>5946</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -819,12 +698,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4662</v>
+        <v>7626</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -838,8 +717,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/Visualization/PowerBI/Data/Managers.xlsx
+++ b/Visualization/PowerBI/Data/Managers.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seder\Documents\GitHub\Data-Analysis\Visualization\PowerBI\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E75015-9FBC-4B04-AE00-BAA2227EA8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -139,8 +145,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,13 +209,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -247,7 +261,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -281,6 +295,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -315,9 +330,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -490,14 +506,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -528,7 +552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -545,7 +569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -562,7 +586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -579,7 +603,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,7 +620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -613,7 +637,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -630,7 +654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -647,7 +671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -664,7 +688,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -681,7 +705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -698,7 +722,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
